--- a/admin_assets/exel-formate/ADMS_DOC.xlsx
+++ b/admin_assets/exel-formate/ADMS_DOC.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+  <si>
+    <t>Entity Name: *</t>
+  </si>
   <si>
     <t>Enter Client Name: *</t>
   </si>
   <si>
-    <t>Entity Name: *</t>
+    <t>Client ID</t>
   </si>
   <si>
     <t>Enter FFI Employee ID: *</t>
@@ -87,7 +91,7 @@
     <t>Languages: *</t>
   </si>
   <si>
-    <t>Mother Tongue: *</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Marital Status: *</t>
@@ -247,73 +251,135 @@
   </si>
   <si>
     <t>Active Status: *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company 1 </t>
+  </si>
+  <si>
+    <t>company 2</t>
+  </si>
+  <si>
+    <t>company 3</t>
+  </si>
+  <si>
+    <t>company 4</t>
+  </si>
+  <si>
+    <t>company 5</t>
+  </si>
+  <si>
+    <t>company 6</t>
+  </si>
+  <si>
+    <t>company 7</t>
+  </si>
+  <si>
+    <t>company 8</t>
+  </si>
+  <si>
+    <t>company 9</t>
+  </si>
+  <si>
+    <t>company 10</t>
+  </si>
+  <si>
+    <t>company 11</t>
+  </si>
+  <si>
+    <t>company 12</t>
+  </si>
+  <si>
+    <t>company 13</t>
+  </si>
+  <si>
+    <t>company 14</t>
+  </si>
+  <si>
+    <t>company 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF262626"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -392,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,6 +493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,359 +666,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BZ1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:78" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/admin_assets/exel-formate/ADMS_DOC.xlsx
+++ b/admin_assets/exel-formate/ADMS_DOC.xlsx
@@ -17,293 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
-  <si>
-    <t>Entity Name: *</t>
-  </si>
-  <si>
-    <t>Enter Client Name: *</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Enter FFI Employee ID: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Console ID: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Client Employee ID: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade: </t>
-  </si>
-  <si>
-    <t>Enter Employee Name: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name: </t>
-  </si>
-  <si>
-    <t>Interview Date: *</t>
-  </si>
-  <si>
-    <t>Joining Date: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOL </t>
-  </si>
-  <si>
-    <t>Enter Designation: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Department: </t>
-  </si>
-  <si>
-    <t>State: *</t>
-  </si>
-  <si>
-    <t>Location: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch: </t>
-  </si>
-  <si>
-    <t>DOB: *</t>
-  </si>
-  <si>
-    <t>Gender: *</t>
-  </si>
-  <si>
-    <t>Father Name: *</t>
-  </si>
-  <si>
-    <t>Mother Name: *</t>
-  </si>
-  <si>
-    <t>Religion: *</t>
-  </si>
-  <si>
-    <t>Languages: *</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>Test</t>
   </si>
-  <si>
-    <t>Marital Status: *</t>
-  </si>
-  <si>
-    <t>Emergency Contact Person: *</t>
-  </si>
-  <si>
-    <t>Spouse Name:</t>
-  </si>
-  <si>
-    <t>No of Children:</t>
-  </si>
-  <si>
-    <t>Blood Group: *</t>
-  </si>
-  <si>
-    <t>Qualification: *</t>
-  </si>
-  <si>
-    <t>Phone 1: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone 2: </t>
-  </si>
-  <si>
-    <t>Email ID:</t>
-  </si>
-  <si>
-    <t>Official Email ID:</t>
-  </si>
-  <si>
-    <t>Enter Permanent Address: *</t>
-  </si>
-  <si>
-    <t>Enter Present Address: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter PAN Card No: </t>
-  </si>
-  <si>
-    <t>Attach PAN</t>
-  </si>
-  <si>
-    <t>Enter Adhar Card No: *</t>
-  </si>
-  <si>
-    <t>Attach Adhaar Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Driving License No: </t>
-  </si>
-  <si>
-    <t>Attach Driving License</t>
-  </si>
-  <si>
-    <t>Photo: *</t>
-  </si>
-  <si>
-    <t>Resume: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Bank Name: </t>
-  </si>
-  <si>
-    <t>Attach Bank Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Bank Account No: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeat Bank Account No: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Bank IFSC CODE: </t>
-  </si>
-  <si>
-    <t>UAN No:</t>
-  </si>
-  <si>
-    <t>ESIC No:</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Basic Salary: *</t>
-  </si>
-  <si>
-    <t>HRA: *</t>
-  </si>
-  <si>
-    <t>Conveyance: *</t>
-  </si>
-  <si>
-    <t>Medical Reimbursement: *</t>
-  </si>
-  <si>
-    <t>Special Allowance: *</t>
-  </si>
-  <si>
-    <t>ST: *</t>
-  </si>
-  <si>
-    <t>Gross Salary: *</t>
-  </si>
-  <si>
-    <t>Employee PF : *</t>
-  </si>
-  <si>
-    <t>Employee ESIC : *</t>
-  </si>
-  <si>
-    <t>PT: *</t>
-  </si>
-  <si>
-    <t>Total Deduction: *</t>
-  </si>
-  <si>
-    <t>Take Home Salary: *</t>
-  </si>
-  <si>
-    <t>Employer PF : *</t>
-  </si>
-  <si>
-    <t>Employer ESIC : *</t>
-  </si>
-  <si>
-    <t>Mediclaim Insurance: *</t>
-  </si>
-  <si>
-    <t>Grand Total: *</t>
-  </si>
-  <si>
-    <t>Attach Voter ID:</t>
-  </si>
-  <si>
-    <t>Attach Employee Form</t>
-  </si>
-  <si>
-    <t>Education Certificate:</t>
-  </si>
-  <si>
-    <t>PF Form / ESIC:</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Payslip:</t>
-  </si>
-  <si>
-    <t>Exp Letter:</t>
-  </si>
-  <si>
-    <t>Password: *</t>
-  </si>
-  <si>
-    <t>Active Status: *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company 1 </t>
-  </si>
-  <si>
-    <t>company 2</t>
-  </si>
-  <si>
-    <t>company 3</t>
-  </si>
-  <si>
-    <t>company 4</t>
-  </si>
-  <si>
-    <t>company 5</t>
-  </si>
-  <si>
-    <t>company 6</t>
-  </si>
-  <si>
-    <t>company 7</t>
-  </si>
-  <si>
-    <t>company 8</t>
-  </si>
-  <si>
-    <t>company 9</t>
-  </si>
-  <si>
-    <t>company 10</t>
-  </si>
-  <si>
-    <t>company 11</t>
-  </si>
-  <si>
-    <t>company 12</t>
-  </si>
-  <si>
-    <t>company 13</t>
-  </si>
-  <si>
-    <t>company 14</t>
-  </si>
-  <si>
-    <t>company 15</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -313,26 +37,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,18 +48,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF262626"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -361,17 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -666,4 +351,94 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>